--- a/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input_with_wmg_office.xlsx
+++ b/Civilworks cost/RADP Preparations/Kishoregonj/Revised with Appendix/Projecttion_input_with_wmg_office.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="8820" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HaorCode" sheetId="9" r:id="rId1"/>
@@ -2888,7 +2888,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3029,7 +3028,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3170,7 +3168,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3311,7 +3308,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3452,7 +3448,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3593,7 +3588,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8797,10 +8791,10 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9065,21 +9059,21 @@
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="51.28515625" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="51.33203125" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -9585,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
+    <row r="12" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
       <c r="A12" s="111">
         <v>11</v>
       </c>
@@ -9722,7 +9716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.15" customHeight="1">
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="61.2" customHeight="1">
       <c r="A15" s="111">
         <v>14</v>
       </c>
@@ -10141,7 +10135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.15" customHeight="1">
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="55.2" customHeight="1">
       <c r="A24" s="111">
         <v>21</v>
       </c>
@@ -10916,7 +10910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="43.15" customHeight="1">
+    <row r="41" spans="1:16" ht="43.2" customHeight="1">
       <c r="A41" s="111">
         <v>40</v>
       </c>
@@ -11008,7 +11002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="43.15" customHeight="1">
+    <row r="43" spans="1:16" ht="43.2" customHeight="1">
       <c r="A43" s="111">
         <v>42</v>
       </c>
@@ -11053,7 +11047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="55.15" customHeight="1">
+    <row r="44" spans="1:16" ht="55.2" customHeight="1">
       <c r="A44" s="111">
         <v>43</v>
       </c>
@@ -11100,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="43.15" customHeight="1">
+    <row r="45" spans="1:16" ht="43.2" customHeight="1">
       <c r="A45" s="111">
         <v>44</v>
       </c>
@@ -11145,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="43.15" customHeight="1">
+    <row r="46" spans="1:16" ht="43.2" customHeight="1">
       <c r="A46" s="111">
         <v>45</v>
       </c>
@@ -11190,7 +11184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="43.15" customHeight="1">
+    <row r="47" spans="1:16" ht="43.2" customHeight="1">
       <c r="A47" s="111">
         <v>46</v>
       </c>
@@ -11235,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="43.15" customHeight="1">
+    <row r="48" spans="1:16" ht="43.2" customHeight="1">
       <c r="A48" s="128">
         <v>47</v>
       </c>
@@ -11280,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="43.15" customHeight="1">
+    <row r="49" spans="1:15" ht="43.2" customHeight="1">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="48"/>
@@ -11312,7 +11306,7 @@
       <c r="N49" s="19"/>
       <c r="O49" s="64"/>
     </row>
-    <row r="50" spans="1:15" ht="43.15" customHeight="1">
+    <row r="50" spans="1:15" ht="43.2" customHeight="1">
       <c r="A50" s="93"/>
       <c r="B50" s="93"/>
       <c r="C50" s="135"/>
@@ -11329,7 +11323,7 @@
       <c r="N50" s="93"/>
       <c r="O50" s="137"/>
     </row>
-    <row r="51" spans="1:15" ht="43.15" customHeight="1">
+    <row r="51" spans="1:15" ht="43.2" customHeight="1">
       <c r="A51" s="93"/>
       <c r="B51" s="93"/>
       <c r="C51" s="135"/>
@@ -11346,7 +11340,7 @@
       <c r="N51" s="93"/>
       <c r="O51" s="137"/>
     </row>
-    <row r="52" spans="1:15" ht="43.15" customHeight="1">
+    <row r="52" spans="1:15" ht="43.2" customHeight="1">
       <c r="A52" s="93"/>
       <c r="B52" s="93"/>
       <c r="C52" s="135"/>
@@ -11363,8 +11357,8 @@
       <c r="N52" s="93"/>
       <c r="O52" s="137"/>
     </row>
-    <row r="53" spans="1:15" ht="32.65" customHeight="1"/>
-    <row r="54" spans="1:15" ht="31.15" customHeight="1">
+    <row r="53" spans="1:15" ht="32.700000000000003" customHeight="1"/>
+    <row r="54" spans="1:15" ht="31.2" customHeight="1">
       <c r="E54" s="19"/>
       <c r="F54" s="138" t="s">
         <v>336</v>
@@ -11386,7 +11380,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="31.15" customHeight="1">
+    <row r="55" spans="1:15" ht="31.2" customHeight="1">
       <c r="E55" s="92" t="s">
         <v>122</v>
       </c>
@@ -11416,7 +11410,7 @@
         <v>737.31</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="31.15" customHeight="1">
+    <row r="56" spans="1:15" ht="31.2" customHeight="1">
       <c r="E56" s="92" t="s">
         <v>133</v>
       </c>
@@ -11446,7 +11440,7 @@
         <v>126.12607828129785</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="31.15" customHeight="1">
+    <row r="57" spans="1:15" ht="31.2" customHeight="1">
       <c r="E57" s="92" t="s">
         <v>184</v>
       </c>
@@ -11476,7 +11470,7 @@
         <v>256.16000000000008</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="31.15" customHeight="1">
+    <row r="58" spans="1:15" ht="31.2" customHeight="1">
       <c r="E58" s="92" t="s">
         <v>144</v>
       </c>
@@ -11506,7 +11500,7 @@
         <v>583.96524217689739</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="31.15" customHeight="1">
+    <row r="59" spans="1:15" ht="31.2" customHeight="1">
       <c r="E59" s="92" t="s">
         <v>155</v>
       </c>
@@ -11536,7 +11530,7 @@
         <v>604.22301787267156</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="31.15" customHeight="1">
+    <row r="60" spans="1:15" ht="31.2" customHeight="1">
       <c r="E60" s="92" t="s">
         <v>174</v>
       </c>
@@ -11566,7 +11560,7 @@
         <v>318.63482352406112</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="31.15" customHeight="1">
+    <row r="61" spans="1:15" ht="31.2" customHeight="1">
       <c r="F61" s="95">
         <f>SUM(F55:F60)</f>
         <v>7825.8594837851497</v>
@@ -11593,7 +11587,7 @@
         <v>2626.419161854928</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="31.15" customHeight="1">
+    <row r="62" spans="1:15" ht="31.2" customHeight="1">
       <c r="E62" s="94"/>
       <c r="F62" s="93"/>
       <c r="G62" s="93"/>
@@ -11602,8 +11596,8 @@
       <c r="J62" s="93"/>
       <c r="K62" s="93"/>
     </row>
-    <row r="63" spans="1:15" ht="31.15" customHeight="1"/>
-    <row r="64" spans="1:15" ht="31.15" customHeight="1"/>
+    <row r="63" spans="1:15" ht="31.2" customHeight="1"/>
+    <row r="64" spans="1:15" ht="31.2" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:O48">
     <sortCondition ref="B2:B48"/>
@@ -11628,22 +11622,22 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
     <col min="7" max="7" width="16" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" customWidth="1"/>
-    <col min="11" max="13" width="24.28515625" customWidth="1"/>
-    <col min="14" max="14" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" style="71" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="13" width="24.33203125" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="23.33203125" style="71" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="63">
@@ -13309,7 +13303,7 @@
       <c r="P40" s="85"/>
       <c r="Q40" s="34"/>
     </row>
-    <row r="41" spans="1:17" ht="43.15" customHeight="1">
+    <row r="41" spans="1:17" ht="43.2" customHeight="1">
       <c r="A41" s="69">
         <v>45</v>
       </c>
@@ -13351,7 +13345,7 @@
       <c r="P41" s="82"/>
       <c r="Q41" s="31"/>
     </row>
-    <row r="42" spans="1:17" ht="43.15" customHeight="1">
+    <row r="42" spans="1:17" ht="43.2" customHeight="1">
       <c r="A42" s="69">
         <v>30</v>
       </c>
@@ -13395,7 +13389,7 @@
       </c>
       <c r="Q42" s="31"/>
     </row>
-    <row r="43" spans="1:17" ht="43.15" customHeight="1">
+    <row r="43" spans="1:17" ht="43.2" customHeight="1">
       <c r="A43" s="69">
         <v>33</v>
       </c>
@@ -13439,7 +13433,7 @@
       </c>
       <c r="Q43" s="31"/>
     </row>
-    <row r="44" spans="1:17" ht="43.15" customHeight="1">
+    <row r="44" spans="1:17" ht="43.2" customHeight="1">
       <c r="A44" s="69">
         <v>36</v>
       </c>
@@ -13483,7 +13477,7 @@
       </c>
       <c r="Q44" s="31"/>
     </row>
-    <row r="45" spans="1:17" ht="43.15" customHeight="1">
+    <row r="45" spans="1:17" ht="43.2" customHeight="1">
       <c r="A45" s="69">
         <v>39</v>
       </c>
@@ -13527,7 +13521,7 @@
       </c>
       <c r="Q45" s="31"/>
     </row>
-    <row r="46" spans="1:17" ht="43.15" customHeight="1">
+    <row r="46" spans="1:17" ht="43.2" customHeight="1">
       <c r="A46" s="69">
         <v>43</v>
       </c>
@@ -13571,7 +13565,7 @@
       </c>
       <c r="Q46" s="31"/>
     </row>
-    <row r="47" spans="1:17" ht="43.15" customHeight="1">
+    <row r="47" spans="1:17" ht="43.2" customHeight="1">
       <c r="A47" s="69">
         <v>46</v>
       </c>
@@ -13613,7 +13607,7 @@
       <c r="P47" s="84"/>
       <c r="Q47" s="31"/>
     </row>
-    <row r="48" spans="1:17" ht="43.15" customHeight="1">
+    <row r="48" spans="1:17" ht="43.2" customHeight="1">
       <c r="A48" s="69">
         <v>47</v>
       </c>
@@ -13655,7 +13649,7 @@
       <c r="P48" s="86"/>
       <c r="Q48" s="31"/>
     </row>
-    <row r="49" spans="1:16" ht="43.15" customHeight="1">
+    <row r="49" spans="1:16" ht="43.2" customHeight="1">
       <c r="A49" s="206" t="s">
         <v>118</v>
       </c>
@@ -13690,7 +13684,7 @@
       <c r="O49" s="19"/>
       <c r="P49" s="87"/>
     </row>
-    <row r="50" spans="1:16" ht="43.15" customHeight="1">
+    <row r="50" spans="1:16" ht="43.2" customHeight="1">
       <c r="A50" s="92"/>
       <c r="B50" s="92"/>
       <c r="C50" s="92"/>
@@ -13708,7 +13702,7 @@
       <c r="O50" s="19"/>
       <c r="P50" s="87"/>
     </row>
-    <row r="51" spans="1:16" ht="43.15" customHeight="1">
+    <row r="51" spans="1:16" ht="43.2" customHeight="1">
       <c r="A51" s="92"/>
       <c r="B51" s="92"/>
       <c r="C51" s="92"/>
@@ -14000,12 +13994,12 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="9" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14578,17 +14572,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14756,14 +14750,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -15082,20 +15076,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -15138,7 +15132,7 @@
       <c r="M1" s="34"/>
       <c r="N1" s="34"/>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.65" customHeight="1">
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="53.7" customHeight="1">
       <c r="A2" s="49" t="s">
         <v>120</v>
       </c>
@@ -15354,7 +15348,7 @@
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
     </row>
-    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:14" s="14" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="49" t="s">
         <v>131</v>
       </c>
@@ -16847,27 +16841,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O151"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A139" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151:M151"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
     <col min="2" max="2" width="53" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
     <col min="6" max="6" width="26" style="24" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="24" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="25" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="24" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="55.5" customHeight="1">
@@ -17159,7 +17153,7 @@
       <c r="N7" s="47"/>
       <c r="O7" s="47"/>
     </row>
-    <row r="8" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="8" spans="1:15" s="14" customFormat="1" ht="43.2" customHeight="1">
       <c r="A8" s="172" t="s">
         <v>503</v>
       </c>
@@ -17976,7 +17970,7 @@
       <c r="N28" s="47"/>
       <c r="O28" s="47"/>
     </row>
-    <row r="29" spans="1:15" s="163" customFormat="1" ht="32.450000000000003" customHeight="1">
+    <row r="29" spans="1:15" s="163" customFormat="1" ht="32.4" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>485</v>
       </c>
@@ -18015,7 +18009,7 @@
       <c r="N29" s="47"/>
       <c r="O29" s="47"/>
     </row>
-    <row r="30" spans="1:15" s="163" customFormat="1" ht="34.15" customHeight="1">
+    <row r="30" spans="1:15" s="163" customFormat="1" ht="34.200000000000003" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>485</v>
       </c>
@@ -18600,7 +18594,7 @@
       <c r="N44" s="47"/>
       <c r="O44" s="47"/>
     </row>
-    <row r="45" spans="1:15" s="14" customFormat="1" ht="43.15" customHeight="1">
+    <row r="45" spans="1:15" s="14" customFormat="1" ht="43.2" customHeight="1">
       <c r="A45" s="8" t="s">
         <v>467</v>
       </c>
@@ -18900,7 +18894,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="61.15" customHeight="1">
+    <row r="53" spans="1:13" ht="61.2" customHeight="1">
       <c r="A53" s="8" t="s">
         <v>441</v>
       </c>
@@ -18937,7 +18931,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="58.15" customHeight="1">
+    <row r="54" spans="1:13" ht="58.2" customHeight="1">
       <c r="A54" s="8" t="s">
         <v>441</v>
       </c>
@@ -18972,7 +18966,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="58.15" customHeight="1">
+    <row r="55" spans="1:13" ht="58.2" customHeight="1">
       <c r="A55" s="8" t="s">
         <v>440</v>
       </c>
@@ -19823,7 +19817,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="62.65" customHeight="1">
+    <row r="78" spans="1:14" ht="62.7" customHeight="1">
       <c r="A78" s="8" t="s">
         <v>413</v>
       </c>
@@ -19934,7 +19928,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="49.15" customHeight="1">
+    <row r="81" spans="1:13" ht="49.2" customHeight="1">
       <c r="A81" s="8" t="s">
         <v>413</v>
       </c>
@@ -19971,7 +19965,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="37.5">
+    <row r="82" spans="1:13" ht="18">
       <c r="A82" s="8" t="s">
         <v>413</v>
       </c>
@@ -20045,7 +20039,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="37.5">
+    <row r="84" spans="1:13" ht="18">
       <c r="A84" s="8" t="s">
         <v>413</v>
       </c>
@@ -20078,7 +20072,7 @@
       </c>
       <c r="M84" s="11"/>
     </row>
-    <row r="85" spans="1:13" ht="41.65" customHeight="1">
+    <row r="85" spans="1:13" ht="41.7" customHeight="1">
       <c r="A85" s="8" t="s">
         <v>413</v>
       </c>
@@ -20150,7 +20144,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="37.5">
+    <row r="87" spans="1:13" ht="36">
       <c r="A87" s="8" t="s">
         <v>506</v>
       </c>
@@ -20185,7 +20179,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="43.15" customHeight="1">
+    <row r="88" spans="1:13" ht="43.2" customHeight="1">
       <c r="A88" s="8" t="s">
         <v>506</v>
       </c>
@@ -20220,7 +20214,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="43.15" customHeight="1">
+    <row r="89" spans="1:13" ht="43.2" customHeight="1">
       <c r="A89" s="8" t="s">
         <v>506</v>
       </c>
@@ -20255,7 +20249,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="43.15" customHeight="1">
+    <row r="90" spans="1:13" ht="43.2" customHeight="1">
       <c r="A90" s="8" t="s">
         <v>506</v>
       </c>
@@ -20286,7 +20280,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="43.15" customHeight="1">
+    <row r="91" spans="1:13" ht="43.2" customHeight="1">
       <c r="A91" s="8" t="s">
         <v>506</v>
       </c>
@@ -20321,7 +20315,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="43.15" customHeight="1">
+    <row r="92" spans="1:13" ht="43.2" customHeight="1">
       <c r="A92" s="8" t="s">
         <v>506</v>
       </c>
@@ -20356,7 +20350,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="43.15" customHeight="1">
+    <row r="93" spans="1:13" ht="43.2" customHeight="1">
       <c r="A93" s="8" t="s">
         <v>506</v>
       </c>
@@ -20391,7 +20385,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="43.15" customHeight="1">
+    <row r="94" spans="1:13" ht="43.2" customHeight="1">
       <c r="A94" s="8" t="s">
         <v>506</v>
       </c>
@@ -20461,7 +20455,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="35.65" customHeight="1">
+    <row r="96" spans="1:13" ht="35.700000000000003" customHeight="1">
       <c r="A96" s="8" t="s">
         <v>419</v>
       </c>
@@ -20498,7 +20492,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="59.65" customHeight="1">
+    <row r="97" spans="1:13" ht="59.7" customHeight="1">
       <c r="A97" s="8" t="s">
         <v>419</v>
       </c>
@@ -20535,7 +20529,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="59.65" customHeight="1">
+    <row r="98" spans="1:13" ht="59.7" customHeight="1">
       <c r="A98" s="8" t="s">
         <v>384</v>
       </c>
@@ -20572,7 +20566,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="59.65" customHeight="1">
+    <row r="99" spans="1:13" ht="59.7" customHeight="1">
       <c r="A99" s="8" t="s">
         <v>384</v>
       </c>
@@ -20609,7 +20603,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="59.65" customHeight="1">
+    <row r="100" spans="1:13" ht="59.7" customHeight="1">
       <c r="A100" s="8" t="s">
         <v>384</v>
       </c>
@@ -20646,7 +20640,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="59.65" customHeight="1">
+    <row r="101" spans="1:13" ht="59.7" customHeight="1">
       <c r="A101" s="8" t="s">
         <v>384</v>
       </c>
@@ -20683,7 +20677,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="59.65" customHeight="1">
+    <row r="102" spans="1:13" ht="59.7" customHeight="1">
       <c r="A102" s="8" t="s">
         <v>384</v>
       </c>
@@ -20720,7 +20714,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="59.65" customHeight="1">
+    <row r="103" spans="1:13" ht="59.7" customHeight="1">
       <c r="A103" s="8" t="s">
         <v>384</v>
       </c>
@@ -20757,7 +20751,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="37.5">
+    <row r="104" spans="1:13" ht="36">
       <c r="A104" s="8" t="s">
         <v>384</v>
       </c>
@@ -20794,7 +20788,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="37.5">
+    <row r="105" spans="1:13" ht="36">
       <c r="A105" s="8" t="s">
         <v>384</v>
       </c>
@@ -20831,7 +20825,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="37.5">
+    <row r="106" spans="1:13" ht="36">
       <c r="A106" s="8" t="s">
         <v>384</v>
       </c>
@@ -20868,7 +20862,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="37.5">
+    <row r="107" spans="1:13" ht="36">
       <c r="A107" s="8" t="s">
         <v>522</v>
       </c>
@@ -20907,7 +20901,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="37.5">
+    <row r="108" spans="1:13" ht="36">
       <c r="A108" s="8" t="s">
         <v>522</v>
       </c>
@@ -20946,7 +20940,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="56.25">
+    <row r="109" spans="1:13" ht="36">
       <c r="A109" s="8" t="s">
         <v>522</v>
       </c>
@@ -20985,7 +20979,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="37.5">
+    <row r="110" spans="1:13" ht="36">
       <c r="A110" s="8" t="s">
         <v>522</v>
       </c>
@@ -21061,7 +21055,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="37.5">
+    <row r="112" spans="1:13" ht="36">
       <c r="A112" s="8" t="s">
         <v>408</v>
       </c>
@@ -21098,7 +21092,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="37.5">
+    <row r="113" spans="1:13" ht="36">
       <c r="A113" s="8" t="s">
         <v>408</v>
       </c>
@@ -21135,7 +21129,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="37.5">
+    <row r="114" spans="1:13" ht="36">
       <c r="A114" s="8" t="s">
         <v>408</v>
       </c>
@@ -21172,7 +21166,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="37.5">
+    <row r="115" spans="1:13" ht="36">
       <c r="A115" s="8" t="s">
         <v>408</v>
       </c>
@@ -21209,7 +21203,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="37.5">
+    <row r="116" spans="1:13" ht="36">
       <c r="A116" s="8" t="s">
         <v>408</v>
       </c>
@@ -21246,7 +21240,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="37.5">
+    <row r="117" spans="1:13" ht="36">
       <c r="A117" s="8" t="s">
         <v>408</v>
       </c>
@@ -21283,7 +21277,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="37.5">
+    <row r="118" spans="1:13" ht="36">
       <c r="A118" s="8" t="s">
         <v>408</v>
       </c>
@@ -21357,7 +21351,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="37.5">
+    <row r="120" spans="1:13" ht="36">
       <c r="A120" s="8" t="s">
         <v>408</v>
       </c>
@@ -21394,7 +21388,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="37.5">
+    <row r="121" spans="1:13" ht="36">
       <c r="A121" s="8" t="s">
         <v>408</v>
       </c>
@@ -21431,7 +21425,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="37.5">
+    <row r="122" spans="1:13" ht="36">
       <c r="A122" s="8" t="s">
         <v>408</v>
       </c>
@@ -21468,7 +21462,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="37.5">
+    <row r="123" spans="1:13" ht="36">
       <c r="A123" s="8" t="s">
         <v>408</v>
       </c>
@@ -21542,7 +21536,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="37.5">
+    <row r="125" spans="1:13" ht="36">
       <c r="A125" s="8" t="s">
         <v>355</v>
       </c>
@@ -21581,7 +21575,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="37.5">
+    <row r="126" spans="1:13" ht="36">
       <c r="A126" s="8" t="s">
         <v>355</v>
       </c>
@@ -21620,7 +21614,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="37.5">
+    <row r="127" spans="1:13" ht="36">
       <c r="A127" s="8" t="s">
         <v>355</v>
       </c>
@@ -21659,7 +21653,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="37.5">
+    <row r="128" spans="1:13" ht="36">
       <c r="A128" s="8" t="s">
         <v>355</v>
       </c>
@@ -21698,7 +21692,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="37.5">
+    <row r="129" spans="1:13" ht="36">
       <c r="A129" s="8" t="s">
         <v>355</v>
       </c>
@@ -21737,7 +21731,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="37.5">
+    <row r="130" spans="1:13" ht="36">
       <c r="A130" s="8" t="s">
         <v>355</v>
       </c>
@@ -21776,7 +21770,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="37.5">
+    <row r="131" spans="1:13" ht="36">
       <c r="A131" s="8" t="s">
         <v>355</v>
       </c>
@@ -21815,7 +21809,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="37.5">
+    <row r="132" spans="1:13" ht="36">
       <c r="A132" s="8" t="s">
         <v>366</v>
       </c>
@@ -21854,7 +21848,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="37.5">
+    <row r="133" spans="1:13" ht="36">
       <c r="A133" s="8" t="s">
         <v>379</v>
       </c>
@@ -21893,7 +21887,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="37.5">
+    <row r="134" spans="1:13" ht="36">
       <c r="A134" s="8" t="s">
         <v>379</v>
       </c>
@@ -21932,7 +21926,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="37.5">
+    <row r="135" spans="1:13" ht="36">
       <c r="A135" s="8" t="s">
         <v>379</v>
       </c>
@@ -21971,7 +21965,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="37.5">
+    <row r="136" spans="1:13" ht="36">
       <c r="A136" s="8" t="s">
         <v>379</v>
       </c>
@@ -22010,7 +22004,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="37.5">
+    <row r="137" spans="1:13" ht="36">
       <c r="A137" s="8" t="s">
         <v>379</v>
       </c>
@@ -22049,7 +22043,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="37.5">
+    <row r="138" spans="1:13" ht="36">
       <c r="A138" s="8" t="s">
         <v>379</v>
       </c>
@@ -22088,7 +22082,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="37.5">
+    <row r="139" spans="1:13" ht="36">
       <c r="A139" s="8" t="s">
         <v>379</v>
       </c>
@@ -22127,7 +22121,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="37.5">
+    <row r="140" spans="1:13" ht="36">
       <c r="A140" s="8" t="s">
         <v>379</v>
       </c>
@@ -22166,7 +22160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="37.5">
+    <row r="141" spans="1:13" ht="36">
       <c r="A141" s="8" t="s">
         <v>374</v>
       </c>
@@ -22205,7 +22199,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="37.5">
+    <row r="142" spans="1:13" ht="36">
       <c r="A142" s="8" t="s">
         <v>374</v>
       </c>
@@ -22244,7 +22238,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="37.5">
+    <row r="143" spans="1:13" ht="36">
       <c r="A143" s="8" t="s">
         <v>374</v>
       </c>
@@ -22283,7 +22277,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="37.5">
+    <row r="144" spans="1:13" ht="36">
       <c r="A144" s="8" t="s">
         <v>374</v>
       </c>
@@ -22322,7 +22316,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="37.5">
+    <row r="145" spans="1:14" ht="36">
       <c r="A145" s="75" t="s">
         <v>374</v>
       </c>
@@ -22401,7 +22395,7 @@
       </c>
       <c r="N146" s="19"/>
     </row>
-    <row r="147" spans="1:14" ht="35.450000000000003" customHeight="1">
+    <row r="147" spans="1:14" ht="35.4" customHeight="1">
       <c r="A147" s="75" t="s">
         <v>568</v>
       </c>
@@ -22441,7 +22435,7 @@
       </c>
       <c r="N147" s="19"/>
     </row>
-    <row r="148" spans="1:14" ht="22.9" customHeight="1">
+    <row r="148" spans="1:14" ht="22.95" customHeight="1">
       <c r="A148" s="75" t="s">
         <v>568</v>
       </c>
@@ -22481,7 +22475,7 @@
       </c>
       <c r="N148" s="19"/>
     </row>
-    <row r="149" spans="1:14" ht="22.9" customHeight="1">
+    <row r="149" spans="1:14" ht="22.95" customHeight="1">
       <c r="A149" s="75" t="s">
         <v>568</v>
       </c>
@@ -22521,7 +22515,7 @@
       </c>
       <c r="N149" s="19"/>
     </row>
-    <row r="150" spans="1:14" ht="22.9" customHeight="1">
+    <row r="150" spans="1:14" ht="22.95" customHeight="1">
       <c r="A150" s="8" t="s">
         <v>568</v>
       </c>
@@ -22625,20 +22619,20 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" customWidth="1"/>
-    <col min="10" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -24532,21 +24526,21 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="9" width="14.33203125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" style="24" customWidth="1"/>
     <col min="14" max="14" width="17" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="25" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" style="24" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="24" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="7" customFormat="1" ht="57.75" customHeight="1">
@@ -26223,20 +26217,20 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
     <col min="2" max="2" width="48" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="25" customWidth="1"/>
     <col min="4" max="4" width="12" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="24" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="24" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -27973,15 +27967,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -28705,23 +28699,23 @@
       <selection activeCell="I46" sqref="I46:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" style="145" customWidth="1"/>
     <col min="7" max="7" width="16" style="145" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="148" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="145" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="148" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="145" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="33.28515625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="31.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="148" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" style="145" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="148" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="145" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" customWidth="1"/>
+    <col min="16" max="16" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="63">
@@ -30731,7 +30725,7 @@
       <c r="N48" s="31"/>
       <c r="O48" s="31"/>
     </row>
-    <row r="49" spans="4:15" ht="31.15" customHeight="1">
+    <row r="49" spans="4:15" ht="31.2" customHeight="1">
       <c r="D49" s="150"/>
       <c r="E49" s="134" t="s">
         <v>40</v>
@@ -30833,7 +30827,7 @@
       <c r="N51" s="19"/>
       <c r="O51" s="19"/>
     </row>
-    <row r="52" spans="4:15" ht="34.15" customHeight="1">
+    <row r="52" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E52" s="134" t="s">
         <v>74</v>
       </c>
@@ -30866,7 +30860,7 @@
       <c r="N52" s="19"/>
       <c r="O52" s="19"/>
     </row>
-    <row r="53" spans="4:15" ht="34.15" customHeight="1">
+    <row r="53" spans="4:15" ht="34.200000000000003" customHeight="1">
       <c r="E53" s="134" t="s">
         <v>97</v>
       </c>
